--- a/ESPN sports website/IPL/Royal Challengers Bangalore/Wanindu Hasaranga de Silva.xlsx
+++ b/ESPN sports website/IPL/Royal Challengers Bangalore/Wanindu Hasaranga de Silva.xlsx
@@ -445,31 +445,31 @@
         <v>Wanindu Hasaranga de Silva</v>
       </c>
       <c r="C2" t="str">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="str">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>233.33</v>
+        <v>42.10</v>
       </c>
       <c r="H2" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J2" t="str">
-        <v>April 12, 2022</v>
+        <v>April 23, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Super Kings won by 23 runs</v>
+        <v>Sunrisers won by 9 wickets (with 72 balls remaining)</v>
       </c>
     </row>
     <row r="3">
@@ -480,31 +480,31 @@
         <v>Wanindu Hasaranga de Silva</v>
       </c>
       <c r="C3" t="str">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D3" t="str">
+        <v>3</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
         <v>1</v>
       </c>
-      <c r="E3" t="str">
-        <v>0</v>
-      </c>
-      <c r="F3" t="str">
-        <v>0</v>
-      </c>
       <c r="G3" t="str">
-        <v>0.00</v>
+        <v>233.33</v>
       </c>
       <c r="H3" t="str">
         <v>Chennai Super Kings</v>
       </c>
       <c r="I3" t="str">
-        <v>Pune</v>
+        <v>DY Patil</v>
       </c>
       <c r="J3" t="str">
-        <v>May 04, 2022</v>
+        <v>April 12, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>RCB won by 13 runs</v>
+        <v>Super Kings won by 23 runs</v>
       </c>
     </row>
     <row r="4">
@@ -515,10 +515,10 @@
         <v>Wanindu Hasaranga de Silva</v>
       </c>
       <c r="C4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>
@@ -527,19 +527,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>0.00</v>
+        <v>33.33</v>
       </c>
       <c r="H4" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I4" t="str">
-        <v>Ahmedabad</v>
+        <v>Brabourne</v>
       </c>
       <c r="J4" t="str">
-        <v>May 27, 2022</v>
+        <v>May 13, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Royals won by 7 wickets (with 11 balls remaining)</v>
+        <v>Punjab Kings won by 54 runs</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Wanindu Hasaranga de Silva</v>
       </c>
       <c r="C5" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="str">
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>133.33</v>
+        <v>0.00</v>
       </c>
       <c r="H5" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I5" t="str">
-        <v>DY Patil</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J5" t="str">
-        <v>March 30, 2022</v>
+        <v>May 27, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>RCB won by 3 wickets (with 4 balls remaining)</v>
+        <v>Royals won by 7 wickets (with 11 balls remaining)</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>Wanindu Hasaranga de Silva</v>
       </c>
       <c r="C6" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="str">
         <v>3</v>
       </c>
       <c r="E6" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="str">
         <v>0</v>
       </c>
       <c r="G6" t="str">
-        <v>33.33</v>
+        <v>133.33</v>
       </c>
       <c r="H6" t="str">
-        <v>Punjab Kings</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I6" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J6" t="str">
-        <v>May 13, 2022</v>
+        <v>March 30, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Punjab Kings won by 54 runs</v>
+        <v>RCB won by 3 wickets (with 4 balls remaining)</v>
       </c>
     </row>
     <row r="7">
@@ -620,31 +620,31 @@
         <v>Wanindu Hasaranga de Silva</v>
       </c>
       <c r="C7" t="str">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D7" t="str">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E7" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="str">
         <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>42.10</v>
+        <v>138.46</v>
       </c>
       <c r="H7" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I7" t="str">
-        <v>Brabourne</v>
+        <v>Pune</v>
       </c>
       <c r="J7" t="str">
-        <v>April 23, 2022</v>
+        <v>April 26, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Sunrisers won by 9 wickets (with 72 balls remaining)</v>
+        <v>Royals won by 29 runs</v>
       </c>
     </row>
     <row r="8">
@@ -655,31 +655,31 @@
         <v>Wanindu Hasaranga de Silva</v>
       </c>
       <c r="C8" t="str">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D8" t="str">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E8" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="str">
         <v>0</v>
       </c>
       <c r="G8" t="str">
-        <v>138.46</v>
+        <v>0.00</v>
       </c>
       <c r="H8" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I8" t="str">
         <v>Pune</v>
       </c>
       <c r="J8" t="str">
-        <v>April 26, 2022</v>
+        <v>May 04, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Royals won by 29 runs</v>
+        <v>RCB won by 13 runs</v>
       </c>
     </row>
   </sheetData>
